--- a/raw_data/jalbert_2020_only/info_data.xlsx
+++ b/raw_data/jalbert_2020_only/info_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\projects\research\truth-db\raw_data\jalbert_2020_only\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85C116F-BA24-4E31-9AAF-960CAD579855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B3BE2D-B650-4B4A-A939-02A2BF811F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="5" xr2:uid="{0D33DE81-FE91-4FB4-9651-07AF831C9532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{0D33DE81-FE91-4FB4-9651-07AF831C9532}"/>
   </bookViews>
   <sheets>
     <sheet name="publication" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="156">
   <si>
     <t>authors</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t>publication</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>difficulty</t>
   </si>
   <si>
     <t>statement_text</t>
@@ -302,6 +296,258 @@
   </si>
   <si>
     <t>n_statements</t>
+  </si>
+  <si>
+    <t>within_num</t>
+  </si>
+  <si>
+    <t>repetition_num</t>
+  </si>
+  <si>
+    <t>measure_num</t>
+  </si>
+  <si>
+    <t>publication_num</t>
+  </si>
+  <si>
+    <t>statement_num</t>
+  </si>
+  <si>
+    <t>proportion_true</t>
+  </si>
+  <si>
+    <t>statement_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volleyball was originally called mintonette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walruses use their tusks primarily for mating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geography </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenland is a part of the Kingdom of Denmark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The stationary ball in lawn bowls is called a jack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In almost all human populations of newborns, there is a slight excess of males </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domesticated goats are descended from the pasang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kava is a beverage made from the root of the pepper plant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Baikal is the world's largest freshwater lake by volume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female turkeys generally weigh half as much as males </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lima bean is also known as the sieva bean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halvah is a confection made of sesame seeds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal color vision is known as trichromacy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dart boards are commonly made of sisal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snakes lack movable eyelids </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couscous is a dish from Africa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sun constitutes more than 99 percent of the entire mass of the solar system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The stones used in curling are concave on the bottom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rugby is played with an oval ball </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The grape plant is a large herb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Chicago Marathon is the world’s oldest annual marathon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kvass is an alcoholic beverage fermented from honey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheep are a type of tylopod mammal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levels of the metal iridium are lower in meteorites than on Earth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The monetary unit in Afghanistan is the rupee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe has the highest average elevation of the continents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain produces most of the world's almonds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nile river flows southward </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competitive badminton is usually played outdoors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dough is boiled in the process of making croissants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The highest waterfall in the world is in Argentina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biking is the first event in a triathlon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mouth of a sea urchin is on its top </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Swazi are the single largest ethnic group in South Africa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candlepins is the most widely played variation of bowling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennis has been traced back to the baths of Rome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endothermic reactions release chemical energy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandy is a game similar to ice hockey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moose may dive underwater while feeding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most sea turtles are carnivorous </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Colchester is a popular type of oyster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both sexes of lions are polygamous </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taboga Island is in Panama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In foxhunting, the hunter usually wears a red shirt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pluto is part of the Kuiper belt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabbages are in the mustard family </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea pigs belong to the cavy family </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sublimation refers to a substance changing states from solid to vapor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The flamingo's pink color comes from carotenoid pigments in its food </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xylem is the water-transporting tissue in plants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fly-fishing is the oldest method of recreational fishing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vesuvius is an active volcano in Italy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glia cells function primarily to support neurons. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada is the second largest country in the world in area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most limes have more acid than lemons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orbital velocity is the steady speed achieved by an object freely falling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The longbow was invented after the crossbow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corn was first domesticated by native peoples in Argentina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The otter belongs to the squirrel family </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland is the least densely forested country in Europe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sticky toffee pudding is a classic Polish dessert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The electron is the heaviest charged particle found in nature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of the genes in baker's yeast are also present in humans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giraffes have terrible eyesight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Carpathian Mountains form a high wall between France and Spain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowboarding is believed to have originated in Europe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night blindness is a symptom of vitamin D deficiency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The heptathlon, in athletics, is a footrace over an obstacle course </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slalom skiing is the navigation of large bumps on the ski slope </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In chemistry, a mass spectrometer is used to separate substances into its constituent parts according to color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Caspian Sea is the lowest body of water on the surface of Earth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayonnaise is usually made with raw egg whites </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherbert has less sugar than ice cream </t>
   </si>
 </sst>
 </file>
@@ -679,63 +925,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80415700-4284-43DC-87D4-AD46DD024473}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{2E164065-52BF-49AB-811B-E8AD1EC1E04D}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{2E164065-52BF-49AB-811B-E8AD1EC1E04D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -770,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
         <v>21</v>
@@ -803,7 +1055,7 @@
         <v>23</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -814,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -845,13 +1097,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P2">
         <v>6</v>
@@ -865,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -896,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P3">
         <v>6</v>
@@ -916,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -947,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P4">
         <v>6</v>
@@ -966,44 +1218,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE43F864-68C9-4C11-B95B-1488298255CB}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1016,7 +1280,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,19 +1318,19 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
         <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1112,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1138,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1164,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1190,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1216,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1242,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1268,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1294,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1310,19 +1574,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF5A1F0-A702-415A-9FB5-3FAA2BCB7F2A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1330,887 +1596,2596 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50">
         <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" t="s">
+        <v>147</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" t="s">
+        <v>153</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" t="s">
+        <v>154</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79D173D-5298-4338-99E7-3C70F9F7ADB0}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>62</v>
-      </c>
       <c r="N1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>99</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>99</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>72</v>
+      </c>
+      <c r="H3">
+        <v>99</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>99</v>
+      </c>
+      <c r="K3">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>36</v>
       </c>
-      <c r="G2">
+      <c r="H4">
         <v>99</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>99</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>72</v>
+      </c>
+      <c r="H5">
+        <v>99</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>99</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
         <v>57</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>99</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>58</v>
       </c>
-      <c r="M2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <v>99</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>99</v>
+      </c>
+      <c r="K7">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>99</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>99</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>72</v>
       </c>
-      <c r="G3">
+      <c r="H9">
         <v>99</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>99</v>
       </c>
-      <c r="J3">
+      <c r="K9">
         <v>50</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>36</v>
+      </c>
+      <c r="H10">
+        <v>99</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>99</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>72</v>
+      </c>
+      <c r="H11">
+        <v>99</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>99</v>
+      </c>
+      <c r="K11">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>36</v>
       </c>
-      <c r="G4">
+      <c r="H12">
         <v>99</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>99</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>72</v>
+      </c>
+      <c r="H13">
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>99</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" t="s">
         <v>57</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <v>99</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>99</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>72</v>
+      </c>
+      <c r="H15">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>99</v>
+      </c>
+      <c r="K15">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="L15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <v>99</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>99</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0.3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>72</v>
       </c>
-      <c r="G5">
+      <c r="H17">
         <v>99</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>99</v>
       </c>
-      <c r="J5">
+      <c r="K17">
         <v>50</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" t="s">
         <v>57</v>
       </c>
-      <c r="L5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="N17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>99</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>99</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>0.3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>72</v>
+      </c>
+      <c r="H19">
+        <v>99</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>99</v>
+      </c>
+      <c r="K19">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>36</v>
-      </c>
-      <c r="G6">
-        <v>99</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>99</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" t="s">
         <v>57</v>
       </c>
-      <c r="L6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0.3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>72</v>
-      </c>
-      <c r="G7">
-        <v>99</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>99</v>
-      </c>
-      <c r="J7">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>36</v>
-      </c>
-      <c r="G8">
-        <v>99</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>99</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0.3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>72</v>
-      </c>
-      <c r="G9">
-        <v>99</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>99</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>36</v>
-      </c>
-      <c r="G10">
-        <v>99</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>99</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>0.3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>72</v>
-      </c>
-      <c r="G11">
-        <v>99</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>99</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-      <c r="K11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>36</v>
-      </c>
-      <c r="G12">
-        <v>99</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>99</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>0.3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>72</v>
-      </c>
-      <c r="G13">
-        <v>99</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>99</v>
-      </c>
-      <c r="J13">
-        <v>50</v>
-      </c>
-      <c r="K13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>36</v>
-      </c>
-      <c r="G14">
-        <v>99</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>99</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>0.3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>72</v>
-      </c>
-      <c r="G15">
-        <v>99</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>99</v>
-      </c>
-      <c r="J15">
-        <v>50</v>
-      </c>
-      <c r="K15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>36</v>
-      </c>
-      <c r="G16">
-        <v>99</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>99</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>0.3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>72</v>
-      </c>
-      <c r="G17">
-        <v>99</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>99</v>
-      </c>
-      <c r="J17">
-        <v>50</v>
-      </c>
-      <c r="K17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>36</v>
-      </c>
-      <c r="G18">
-        <v>99</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>99</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0.3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>72</v>
-      </c>
-      <c r="G19">
-        <v>99</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>99</v>
-      </c>
-      <c r="J19">
-        <v>50</v>
-      </c>
-      <c r="K19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19">
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19">
         <v>1</v>
       </c>
     </row>
@@ -2221,20 +4196,122 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F7CF78-DA40-43F7-BDD4-6BE4D5340B85}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/jalbert_2020_only/info_data.xlsx
+++ b/raw_data/jalbert_2020_only/info_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\projects\research\truth-db\raw_data\jalbert_2020_only\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B3BE2D-B650-4B4A-A939-02A2BF811F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679EBE03-9101-4C57-8939-9A746A8CA290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{0D33DE81-FE91-4FB4-9651-07AF831C9532}"/>
   </bookViews>
@@ -40,14 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="156">
   <si>
     <t>authors</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>n_groups</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>github</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>rt_onset</t>
   </si>
   <si>
-    <t>within_manipulations</t>
-  </si>
-  <si>
     <t>physiological_measures</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
   </si>
   <si>
     <t>data_num</t>
-  </si>
-  <si>
-    <t>publication</t>
   </si>
   <si>
     <t>statement_text</t>
@@ -548,6 +536,18 @@
   </si>
   <si>
     <t xml:space="preserve">Sherbert has less sugar than ice cream </t>
+  </si>
+  <si>
+    <t>conducted</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>study_comment</t>
+  </si>
+  <si>
+    <t>statementset_publication</t>
   </si>
 </sst>
 </file>
@@ -925,69 +925,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80415700-4284-43DC-87D4-AD46DD024473}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>2020</v>
       </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{2E164065-52BF-49AB-811B-E8AD1EC1E04D}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{2E164065-52BF-49AB-811B-E8AD1EC1E04D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -996,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA4D99B-1DFF-49B6-BD10-76A1B28ABEC7}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,57 +1014,54 @@
     <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
       </c>
       <c r="O1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1093,23 +1096,20 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2">
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1144,23 +1144,20 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3">
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1168,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1195,19 +1192,16 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4">
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4">
         <v>6</v>
       </c>
     </row>
@@ -1220,21 +1214,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE43F864-68C9-4C11-B95B-1488298255CB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1267,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1309,28 +1301,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1350,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1376,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1402,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1428,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1454,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1480,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1506,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1532,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1558,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1576,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF5A1F0-A702-415A-9FB5-3FAA2BCB7F2A}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,25 +1582,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1616,16 +1608,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1639,16 +1631,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1662,16 +1654,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1685,16 +1677,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1708,16 +1700,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1731,16 +1723,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1754,16 +1746,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1777,16 +1769,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1800,16 +1792,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1823,16 +1815,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
         <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1846,16 +1838,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1869,16 +1861,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1892,16 +1884,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1915,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1938,16 +1930,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1961,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1984,16 +1976,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2007,16 +1999,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2030,16 +2022,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2053,16 +2045,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2076,16 +2068,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2099,16 +2091,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2122,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2145,16 +2137,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2168,16 +2160,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2191,16 +2183,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2214,16 +2206,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2237,16 +2229,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2260,16 +2252,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2283,16 +2275,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2306,16 +2298,16 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2329,16 +2321,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2352,16 +2344,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2375,16 +2367,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2398,16 +2390,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2421,16 +2413,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2444,16 +2436,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2467,16 +2459,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2490,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2513,16 +2505,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2536,16 +2528,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2559,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2582,16 +2574,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2605,16 +2597,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2628,16 +2620,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2651,16 +2643,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2674,16 +2666,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2697,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E49" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2720,16 +2712,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2743,16 +2735,16 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2766,16 +2758,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2789,16 +2781,16 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2812,16 +2804,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C54">
         <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2835,16 +2827,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C55">
         <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2858,16 +2850,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C56">
         <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2881,16 +2873,16 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2904,16 +2896,16 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C58">
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2927,16 +2919,16 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C59">
         <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E59" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2950,16 +2942,16 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C60">
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2973,16 +2965,16 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C61">
         <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2996,16 +2988,16 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C62">
         <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3019,16 +3011,16 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3042,16 +3034,16 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3065,16 +3057,16 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3088,16 +3080,16 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3111,16 +3103,16 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3134,16 +3126,16 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3157,16 +3149,16 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C69">
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3180,16 +3172,16 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C70">
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3203,16 +3195,16 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C71">
         <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3226,16 +3218,16 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C72">
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3249,16 +3241,16 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C73">
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3278,7 +3270,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,49 +3290,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3354,10 +3346,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3378,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -3401,10 +3393,10 @@
         <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3425,13 +3417,13 @@
         <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -3448,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3472,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -3495,10 +3487,10 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3519,13 +3511,13 @@
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -3542,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3566,13 +3558,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3589,10 +3581,10 @@
         <v>0.3</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3613,13 +3605,13 @@
         <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -3636,10 +3628,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3660,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3683,10 +3675,10 @@
         <v>0.3</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3707,13 +3699,13 @@
         <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -3730,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3754,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -3777,10 +3769,10 @@
         <v>0.3</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3801,13 +3793,13 @@
         <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -3824,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3848,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3871,10 +3863,10 @@
         <v>0.3</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3895,13 +3887,13 @@
         <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -3918,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3942,13 +3934,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3965,10 +3957,10 @@
         <v>0.3</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3989,13 +3981,13 @@
         <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -4012,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4036,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -4059,10 +4051,10 @@
         <v>0.3</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -4083,13 +4075,13 @@
         <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -4106,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -4130,13 +4122,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -4153,10 +4145,10 @@
         <v>0.3</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -4177,13 +4169,13 @@
         <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -4206,13 +4198,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4223,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4234,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4245,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4256,7 +4248,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4267,7 +4259,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4278,7 +4270,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4289,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4300,7 +4292,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4311,7 +4303,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/jalbert_2020_only/info_data.xlsx
+++ b/raw_data/jalbert_2020_only/info_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\projects\research\truth-db\raw_data\jalbert_2020_only\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679EBE03-9101-4C57-8939-9A746A8CA290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA8FCE0-B24E-42EC-B5AC-D026A5F28054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{0D33DE81-FE91-4FB4-9651-07AF831C9532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="6" xr2:uid="{0D33DE81-FE91-4FB4-9651-07AF831C9532}"/>
   </bookViews>
   <sheets>
     <sheet name="publication" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>truth_rating_scale</t>
-  </si>
-  <si>
-    <t>data_num</t>
   </si>
   <si>
     <t>statement_text</t>
@@ -548,6 +545,9 @@
   </si>
   <si>
     <t>statementset_publication</t>
+  </si>
+  <si>
+    <t>dataset_num</t>
   </si>
 </sst>
 </file>
@@ -935,16 +935,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" t="s">
-        <v>153</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -967,28 +967,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>2020</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1022,13 +1022,13 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -1058,7 +1058,7 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1097,13 +1097,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="O2">
         <v>6</v>
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>48</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>49</v>
       </c>
       <c r="O3">
         <v>6</v>
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>48</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
       </c>
       <c r="O4">
         <v>6</v>
@@ -1220,7 +1220,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,25 +1304,25 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1568,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF5A1F0-A702-415A-9FB5-3FAA2BCB7F2A}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,22 +1585,22 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1608,16 +1608,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1631,16 +1631,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1654,16 +1654,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
         <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1677,16 +1677,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1700,16 +1700,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
         <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1723,16 +1723,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
         <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1769,16 +1769,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1792,16 +1792,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1815,16 +1815,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1838,16 +1838,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1861,16 +1861,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1884,16 +1884,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1930,16 +1930,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1953,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1976,16 +1976,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1999,16 +1999,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2022,16 +2022,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2045,16 +2045,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2068,16 +2068,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2091,16 +2091,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2160,16 +2160,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2183,16 +2183,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2206,16 +2206,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2229,16 +2229,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2252,16 +2252,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2275,16 +2275,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2321,16 +2321,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2344,16 +2344,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2367,16 +2367,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2413,16 +2413,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2436,16 +2436,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2459,16 +2459,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2482,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2505,16 +2505,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2528,16 +2528,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2551,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2574,16 +2574,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2597,16 +2597,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2620,16 +2620,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2643,16 +2643,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2666,16 +2666,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2712,16 +2712,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2735,16 +2735,16 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2758,16 +2758,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2781,16 +2781,16 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2804,16 +2804,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54">
         <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2827,16 +2827,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55">
         <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2850,16 +2850,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56">
         <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2873,16 +2873,16 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2896,16 +2896,16 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C58">
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59">
         <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2942,16 +2942,16 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60">
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2965,16 +2965,16 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61">
         <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2988,16 +2988,16 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C62">
         <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3011,16 +3011,16 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3057,16 +3057,16 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3080,16 +3080,16 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3103,16 +3103,16 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3126,16 +3126,16 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3149,16 +3149,16 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C69">
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3172,16 +3172,16 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C70">
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C71">
         <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3218,16 +3218,16 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C72">
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3241,16 +3241,16 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C73">
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3270,7 +3270,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3290,49 +3290,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3346,10 +3346,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3370,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3417,13 +3417,13 @@
         <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -3440,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3464,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
         <v>51</v>
       </c>
-      <c r="M4" t="s">
-        <v>52</v>
-      </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3511,13 +3511,13 @@
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -3534,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3558,13 +3558,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="M6" t="s">
-        <v>52</v>
-      </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         <v>0.3</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3605,13 +3605,13 @@
         <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -3628,10 +3628,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3652,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
         <v>51</v>
       </c>
-      <c r="M8" t="s">
-        <v>52</v>
-      </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0.3</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3699,13 +3699,13 @@
         <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -3722,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
         <v>51</v>
       </c>
-      <c r="M10" t="s">
-        <v>52</v>
-      </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -3769,10 +3769,10 @@
         <v>0.3</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3793,13 +3793,13 @@
         <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -3816,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3840,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
         <v>51</v>
       </c>
-      <c r="M12" t="s">
-        <v>52</v>
-      </c>
       <c r="N12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3863,10 +3863,10 @@
         <v>0.3</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3887,13 +3887,13 @@
         <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3934,13 +3934,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
         <v>51</v>
       </c>
-      <c r="M14" t="s">
-        <v>52</v>
-      </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0.3</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3981,13 +3981,13 @@
         <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -4004,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
         <v>51</v>
       </c>
-      <c r="M16" t="s">
-        <v>52</v>
-      </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -4051,10 +4051,10 @@
         <v>0.3</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -4075,13 +4075,13 @@
         <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -4122,13 +4122,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" t="s">
         <v>51</v>
       </c>
-      <c r="M18" t="s">
-        <v>52</v>
-      </c>
       <c r="N18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -4145,10 +4145,10 @@
         <v>0.3</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -4169,13 +4169,13 @@
         <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -4190,21 +4190,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F7CF78-DA40-43F7-BDD4-6BE4D5340B85}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4215,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4226,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4237,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4248,7 +4248,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4259,7 +4259,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4270,7 +4270,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4292,7 +4292,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4303,7 +4303,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
